--- a/data/Creators.xlsx
+++ b/data/Creators.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29325"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C17B986-679E-45D8-B698-14E492F51639}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C6D6409-49BA-4391-8ED7-D7335EB1792F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Creator type</t>
   </si>
@@ -42,37 +42,88 @@
     <t>Group number</t>
   </si>
   <si>
+    <t>Landscape Engineer</t>
+  </si>
+  <si>
+    <t>Zahra Mansoor</t>
+  </si>
+  <si>
+    <t>Siddiqa Hasan Almahari</t>
+  </si>
+  <si>
+    <t>Noof Selafet Theyab</t>
+  </si>
+  <si>
+    <t>Fatema Hasan Almajed</t>
+  </si>
+  <si>
+    <t>Maryam Ali Helal</t>
+  </si>
+  <si>
+    <t>Fatema Ahmad Esmaia</t>
+  </si>
+  <si>
+    <t>Eman Ameer Ahmed</t>
+  </si>
+  <si>
+    <t>Sahar Yusuf Shabib</t>
+  </si>
+  <si>
+    <t>Bayan Ebrahim Yousif</t>
+  </si>
+  <si>
+    <t>Shaima Haji</t>
+  </si>
+  <si>
+    <t>Kawthar Sayed Jaffar</t>
+  </si>
+  <si>
+    <t>Baneen Jaffar Mohamed</t>
+  </si>
+  <si>
+    <t>Shaikha Khalif Yusuf</t>
+  </si>
+  <si>
     <t>Biologist</t>
   </si>
   <si>
-    <t>Im</t>
-  </si>
-  <si>
-    <t>Im2</t>
-  </si>
-  <si>
-    <t>Za</t>
-  </si>
-  <si>
-    <t>Za2</t>
-  </si>
-  <si>
-    <t>Landscape Engineer</t>
-  </si>
-  <si>
-    <t>Fa</t>
-  </si>
-  <si>
-    <t>Fa3</t>
+    <t>Asma Abdulkareem Halboup</t>
+  </si>
+  <si>
+    <t>Wadeea Abbas Abdulnabi</t>
+  </si>
+  <si>
+    <t>Zainab Zuhair Mohamed</t>
+  </si>
+  <si>
+    <t>Fatema Ismaeel A.Hameed</t>
+  </si>
+  <si>
+    <t>Nuha Ahmed Mohamed</t>
+  </si>
+  <si>
+    <t>Zainab Sadiq A. rasool Alsakafi</t>
+  </si>
+  <si>
+    <t>Omnia Zaid Omer</t>
+  </si>
+  <si>
+    <t>Zainab Bader Habib</t>
+  </si>
+  <si>
+    <t>Donya Yousif Bani Younes</t>
+  </si>
+  <si>
+    <t>Eman Kamal Ajaj</t>
   </si>
   <si>
     <t>Software Engineer</t>
   </si>
   <si>
-    <t>Lo</t>
-  </si>
-  <si>
-    <t>Ha</t>
+    <t>Hawra Abdulla Markhoos</t>
+  </si>
+  <si>
+    <t>Lora Adel Almulla</t>
   </si>
 </sst>
 </file>
@@ -447,15 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -516,47 +568,400 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="1">
         <v>4</v>
       </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/data/Creators.xlsx
+++ b/data/Creators.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C6D6409-49BA-4391-8ED7-D7335EB1792F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD9966A-7B49-4E7F-8CBB-B10FC3E0D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Creator type</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Eman Kamal Ajaj</t>
+  </si>
+  <si>
+    <t>Saleh Ahmed Saleh</t>
   </si>
   <si>
     <t>Software Engineer</t>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,16 +760,16 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
@@ -774,8 +777,12 @@
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3">
@@ -963,9 +970,14 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A100" xr:uid="{B6AF7961-A03A-4E2D-83CF-3B93FCCC5772}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A101" xr:uid="{B6AF7961-A03A-4E2D-83CF-3B93FCCC5772}">
       <formula1>"Software Engineer, Landscape Engineer, Biologist"</formula1>
     </dataValidation>
   </dataValidations>
